--- a/data/raw/FORESTRYdata/2020/屏東處_v0.xlsx
+++ b/data/raw/FORESTRYdata/2020/屏東處_v0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="9408" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22344" windowHeight="9576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="六龜" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5198" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="456">
   <si>
     <t>林管處</t>
   </si>
@@ -15765,8 +15765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="I154" sqref="I154"/>
+    <sheetView tabSelected="1" topLeftCell="I79" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -20391,11 +20391,11 @@
       <c r="K86" t="s">
         <v>25</v>
       </c>
-      <c r="L86" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="M86" s="4" t="s">
-        <v>204</v>
+      <c r="L86" s="4">
+        <v>188276</v>
+      </c>
+      <c r="M86" s="4">
+        <v>2522950</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>68</v>
@@ -20447,11 +20447,11 @@
       <c r="K87" t="s">
         <v>32</v>
       </c>
-      <c r="L87" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="M87" s="4" t="s">
-        <v>207</v>
+      <c r="L87" s="4">
+        <v>188090</v>
+      </c>
+      <c r="M87" s="4">
+        <v>2522769</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>68</v>
@@ -20503,11 +20503,11 @@
       <c r="K88" t="s">
         <v>23</v>
       </c>
-      <c r="L88" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="M88" s="4" t="s">
-        <v>209</v>
+      <c r="L88" s="4">
+        <v>187932</v>
+      </c>
+      <c r="M88" s="4">
+        <v>2522598</v>
       </c>
       <c r="N88" s="4" t="s">
         <v>68</v>
@@ -20560,11 +20560,11 @@
       <c r="K89" t="s">
         <v>35</v>
       </c>
-      <c r="L89" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>211</v>
+      <c r="L89" s="4">
+        <v>187717</v>
+      </c>
+      <c r="M89" s="4">
+        <v>2522586</v>
       </c>
       <c r="N89" s="4" t="s">
         <v>68</v>
@@ -20619,11 +20619,11 @@
       <c r="K90" t="s">
         <v>37</v>
       </c>
-      <c r="L90" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>213</v>
+      <c r="L90" s="4">
+        <v>187463</v>
+      </c>
+      <c r="M90" s="4">
+        <v>2522457</v>
       </c>
       <c r="N90" s="4" t="s">
         <v>68</v>
@@ -20675,11 +20675,11 @@
       <c r="K91" t="s">
         <v>39</v>
       </c>
-      <c r="L91" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>215</v>
+      <c r="L91" s="4">
+        <v>187261</v>
+      </c>
+      <c r="M91" s="4">
+        <v>2522303</v>
       </c>
       <c r="N91" s="4" t="s">
         <v>105</v>
@@ -20729,11 +20729,11 @@
       <c r="K92" t="s">
         <v>25</v>
       </c>
-      <c r="L92" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>204</v>
+      <c r="L92" s="4">
+        <v>188276</v>
+      </c>
+      <c r="M92" s="4">
+        <v>2522950</v>
       </c>
       <c r="N92" t="s">
         <v>27</v>
@@ -20783,11 +20783,11 @@
       <c r="K93" t="s">
         <v>32</v>
       </c>
-      <c r="L93" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="M93" s="4" t="s">
-        <v>207</v>
+      <c r="L93" s="4">
+        <v>188090</v>
+      </c>
+      <c r="M93" s="4">
+        <v>2522769</v>
       </c>
       <c r="N93" t="s">
         <v>38</v>
@@ -20837,11 +20837,11 @@
       <c r="K94" t="s">
         <v>23</v>
       </c>
-      <c r="L94" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>209</v>
+      <c r="L94" s="4">
+        <v>187932</v>
+      </c>
+      <c r="M94" s="4">
+        <v>2522598</v>
       </c>
       <c r="N94" t="s">
         <v>38</v>
@@ -20891,11 +20891,11 @@
       <c r="K95" t="s">
         <v>35</v>
       </c>
-      <c r="L95" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>211</v>
+      <c r="L95" s="4">
+        <v>187717</v>
+      </c>
+      <c r="M95" s="4">
+        <v>2522586</v>
       </c>
       <c r="N95" t="s">
         <v>38</v>
@@ -20945,11 +20945,11 @@
       <c r="K96" t="s">
         <v>37</v>
       </c>
-      <c r="L96" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="M96" s="4" t="s">
-        <v>213</v>
+      <c r="L96" s="4">
+        <v>187463</v>
+      </c>
+      <c r="M96" s="4">
+        <v>2522457</v>
       </c>
       <c r="N96" t="s">
         <v>38</v>
@@ -20999,11 +20999,11 @@
       <c r="K97" t="s">
         <v>39</v>
       </c>
-      <c r="L97" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="M97" s="4" t="s">
-        <v>215</v>
+      <c r="L97" s="4">
+        <v>187261</v>
+      </c>
+      <c r="M97" s="4">
+        <v>2522303</v>
       </c>
       <c r="N97" t="s">
         <v>38</v>

--- a/data/raw/FORESTRYdata/2020/屏東處_v0.xlsx
+++ b/data/raw/FORESTRYdata/2020/屏東處_v0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22344" windowHeight="9576" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="9408" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="六龜" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5184" uniqueCount="456">
   <si>
     <t>林管處</t>
   </si>
@@ -1896,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T121"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="D91" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="L101" sqref="L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7519,7 +7519,7 @@
         <v>214180</v>
       </c>
       <c r="M100" s="8">
-        <v>2534781</v>
+        <v>2537481</v>
       </c>
       <c r="N100" s="6">
         <v>9</v>
@@ -7855,7 +7855,7 @@
         <v>214180</v>
       </c>
       <c r="M106" s="8">
-        <v>2534781</v>
+        <v>2537481</v>
       </c>
       <c r="N106" s="6">
         <v>8</v>
@@ -8729,8 +8729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="C82" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -13578,10 +13578,10 @@
         <v>1</v>
       </c>
       <c r="L92" s="8">
-        <v>223658</v>
+        <v>223625</v>
       </c>
       <c r="M92" s="8">
-        <v>2445942</v>
+        <v>2445642</v>
       </c>
       <c r="N92" s="6">
         <v>9</v>
@@ -13631,10 +13631,10 @@
         <v>2</v>
       </c>
       <c r="L93" s="8">
-        <v>223725</v>
+        <v>223658</v>
       </c>
       <c r="M93" s="8">
-        <v>2446175</v>
+        <v>2445942</v>
       </c>
       <c r="N93" s="8">
         <v>9</v>
@@ -13682,10 +13682,10 @@
         <v>3</v>
       </c>
       <c r="L94" s="8">
-        <v>223812</v>
+        <v>223725</v>
       </c>
       <c r="M94" s="8">
-        <v>2446416</v>
+        <v>2446175</v>
       </c>
       <c r="N94" s="6">
         <v>9</v>
@@ -13733,10 +13733,10 @@
         <v>4</v>
       </c>
       <c r="L95" s="8">
-        <v>223836</v>
+        <v>223812</v>
       </c>
       <c r="M95" s="8">
-        <v>2446665</v>
+        <v>2446416</v>
       </c>
       <c r="N95" s="6">
         <v>9</v>
@@ -13784,10 +13784,10 @@
         <v>5</v>
       </c>
       <c r="L96" s="8">
-        <v>223936</v>
+        <v>223836</v>
       </c>
       <c r="M96" s="8">
-        <v>2446845</v>
+        <v>2446665</v>
       </c>
       <c r="N96" s="6">
         <v>10</v>
@@ -15765,8 +15765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I79" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="I134" sqref="I134:I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -18498,9 +18498,15 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50">
+        <v>197806</v>
+      </c>
+      <c r="M50">
+        <v>2531465</v>
+      </c>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="5"/>
@@ -18530,9 +18536,15 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
+      <c r="K51" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51">
+        <v>197879</v>
+      </c>
+      <c r="M51">
+        <v>2532187</v>
+      </c>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="5"/>
@@ -18562,9 +18574,15 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
+      <c r="K52" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52">
+        <v>197936</v>
+      </c>
+      <c r="M52">
+        <v>2533178</v>
+      </c>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="5"/>
@@ -18594,9 +18612,15 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
+      <c r="K53" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53">
+        <v>197990</v>
+      </c>
+      <c r="M53">
+        <v>2533409</v>
+      </c>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="5"/>
@@ -18626,9 +18650,15 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
+      <c r="K54" t="s">
+        <v>37</v>
+      </c>
+      <c r="L54">
+        <v>198195</v>
+      </c>
+      <c r="M54">
+        <v>2533407</v>
+      </c>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="5"/>
@@ -18658,9 +18688,15 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
+      <c r="K55" t="s">
+        <v>39</v>
+      </c>
+      <c r="L55">
+        <v>198394</v>
+      </c>
+      <c r="M55">
+        <v>2533531</v>
+      </c>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="5"/>
@@ -22600,8 +22636,8 @@
       <c r="K126" t="s">
         <v>37</v>
       </c>
-      <c r="L126" s="4" t="s">
-        <v>304</v>
+      <c r="L126" s="4">
+        <v>209269</v>
       </c>
       <c r="M126" s="4" t="s">
         <v>305</v>
@@ -22924,8 +22960,8 @@
       <c r="K132" t="s">
         <v>37</v>
       </c>
-      <c r="L132" s="4" t="s">
-        <v>304</v>
+      <c r="L132" s="4">
+        <v>209269</v>
       </c>
       <c r="M132" s="4" t="s">
         <v>305</v>
@@ -23019,9 +23055,15 @@
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
+      <c r="K134" t="s">
+        <v>25</v>
+      </c>
+      <c r="L134">
+        <v>209786</v>
+      </c>
+      <c r="M134">
+        <v>2533038</v>
+      </c>
       <c r="N134" s="5"/>
       <c r="O134" s="5"/>
       <c r="P134" s="5"/>
@@ -23051,9 +23093,15 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
+      <c r="K135" t="s">
+        <v>32</v>
+      </c>
+      <c r="L135">
+        <v>209569</v>
+      </c>
+      <c r="M135">
+        <v>2532966</v>
+      </c>
       <c r="N135" s="5"/>
       <c r="O135" s="5"/>
       <c r="P135" s="5"/>
@@ -23083,9 +23131,15 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
+      <c r="K136" t="s">
+        <v>23</v>
+      </c>
+      <c r="L136">
+        <v>208434</v>
+      </c>
+      <c r="M136">
+        <v>2532632</v>
+      </c>
       <c r="N136" s="5"/>
       <c r="O136" s="5"/>
       <c r="P136" s="5"/>
@@ -23115,9 +23169,15 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
+      <c r="K137" t="s">
+        <v>35</v>
+      </c>
+      <c r="L137">
+        <v>208697</v>
+      </c>
+      <c r="M137">
+        <v>2532845</v>
+      </c>
       <c r="N137" s="5"/>
       <c r="O137" s="5"/>
       <c r="P137" s="5"/>
@@ -23147,9 +23207,15 @@
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="5"/>
+      <c r="K138" t="s">
+        <v>37</v>
+      </c>
+      <c r="L138">
+        <v>208632</v>
+      </c>
+      <c r="M138">
+        <v>2533084</v>
+      </c>
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
       <c r="P138" s="5"/>
@@ -23179,9 +23245,15 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
+      <c r="K139" t="s">
+        <v>39</v>
+      </c>
+      <c r="L139">
+        <v>208918</v>
+      </c>
+      <c r="M139">
+        <v>2532895</v>
+      </c>
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
       <c r="P139" s="5"/>

--- a/data/raw/FORESTRYdata/2020/屏東處_v0.xlsx
+++ b/data/raw/FORESTRYdata/2020/屏東處_v0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="9408" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22128" windowHeight="9360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="六龜" sheetId="1" r:id="rId1"/>
@@ -15765,8 +15765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134:I139"/>
+    <sheetView tabSelected="1" topLeftCell="H118" workbookViewId="0">
+      <selection activeCell="L135" sqref="L135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -22637,7 +22637,7 @@
         <v>37</v>
       </c>
       <c r="L126" s="4">
-        <v>209269</v>
+        <v>209569</v>
       </c>
       <c r="M126" s="4" t="s">
         <v>305</v>
@@ -22961,7 +22961,7 @@
         <v>37</v>
       </c>
       <c r="L132" s="4">
-        <v>209269</v>
+        <v>209569</v>
       </c>
       <c r="M132" s="4" t="s">
         <v>305</v>
